--- a/list_1_r.xlsx
+++ b/list_1_r.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,6 +1248,14 @@
         <v>10185841</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10165675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1259,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,6 +2079,14 @@
         <v>12993585</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>12567105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2082,7 +2098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2894,6 +2910,14 @@
         <v>3627516</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3870534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2905,7 +2929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3717,6 +3741,14 @@
         <v>1054290</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1060902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3728,7 +3760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4540,6 +4572,14 @@
         <v>1929183</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1921995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4551,7 +4591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,6 +5403,14 @@
         <v>1965409</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2080868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5374,7 +5422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6186,6 +6234,14 @@
         <v>303252</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>303403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6197,7 +6253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7009,6 +7065,14 @@
         <v>319265</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>318481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_1_r.xlsx
+++ b/list_1_r.xlsx
@@ -458,802 +458,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>5823362</v>
+        <v>5716458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>5744750</v>
+        <v>6026481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>5716458</v>
+        <v>6148666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>6026481</v>
+        <v>6175203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>6148666</v>
+        <v>6230140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>6175203</v>
+        <v>6099067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>6230140</v>
+        <v>5943747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>6099067</v>
+        <v>5839595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>5943747</v>
+        <v>5961990</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>5839595</v>
+        <v>6159500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>5961990</v>
+        <v>6028216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>6159500</v>
+        <v>6040295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>6028216</v>
+        <v>5937147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>6040295</v>
+        <v>6074436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>5937147</v>
+        <v>6097925</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>6074436</v>
+        <v>5889284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>6097925</v>
+        <v>5793564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>5889284</v>
+        <v>5713966</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>5793564</v>
+        <v>5792696</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>5713966</v>
+        <v>5787538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>5792696</v>
+        <v>6097314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>5787538</v>
+        <v>6100486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>6097314</v>
+        <v>5895935</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>6100486</v>
+        <v>5844811</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>5895935</v>
+        <v>5777555</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>5844811</v>
+        <v>5885680</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>5777555</v>
+        <v>6069755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>5885680</v>
+        <v>5999372</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>6069755</v>
+        <v>6080538</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>5999372</v>
+        <v>6215963</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>6080538</v>
+        <v>6386365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>6215963</v>
+        <v>6489186</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>6386365</v>
+        <v>6470309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>6489186</v>
+        <v>6262540</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>6470309</v>
+        <v>6159247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>6262540</v>
+        <v>6124830</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>6159247</v>
+        <v>6154189</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>6124830</v>
+        <v>6580027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>6154189</v>
+        <v>6453420</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>6580027</v>
+        <v>6715765</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>6453420</v>
+        <v>6767345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>6715765</v>
+        <v>6550534</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>6767345</v>
+        <v>6721678</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>6550534</v>
+        <v>6732886</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>6721678</v>
+        <v>6663739</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>6732886</v>
+        <v>6817013</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>6663739</v>
+        <v>6845102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>6817013</v>
+        <v>6763697</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>6845102</v>
+        <v>6706013</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>6763697</v>
+        <v>6796515</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>6706013</v>
+        <v>6817906</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>6796515</v>
+        <v>6650934</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>6817906</v>
+        <v>6700663</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>6650934</v>
+        <v>6782334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>6700663</v>
+        <v>6841003</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>6782334</v>
+        <v>6920211</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>6841003</v>
+        <v>6981248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>6920211</v>
+        <v>6840706</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>6981248</v>
+        <v>6900569</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>6840706</v>
+        <v>6805723</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>6900569</v>
+        <v>6801412</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>6805723</v>
+        <v>6298988</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>6801412</v>
+        <v>6456688</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>6298988</v>
+        <v>6495599</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>6456688</v>
+        <v>6563204</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>6495599</v>
+        <v>6550235</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>6563204</v>
+        <v>6581842</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>6550235</v>
+        <v>6665320</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>6581842</v>
+        <v>6721218</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>6665320</v>
+        <v>6610725</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>6721218</v>
+        <v>6905811</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>6610725</v>
+        <v>7240202</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>6905811</v>
+        <v>7610828</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>7240202</v>
+        <v>7483047</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>7610828</v>
+        <v>7722919</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>7483047</v>
+        <v>7750064</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>7722919</v>
+        <v>8077989</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>7750064</v>
+        <v>8234573</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>8077989</v>
+        <v>8145483</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>8234573</v>
+        <v>8236310</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>8145483</v>
+        <v>7999998</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>8236310</v>
+        <v>8178456</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>7999998</v>
+        <v>8061295</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>8178456</v>
+        <v>8181733</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>8061295</v>
+        <v>8285171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>8181733</v>
+        <v>8794698</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>8285171</v>
+        <v>8291711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>8794698</v>
+        <v>8730701</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>8291711</v>
+        <v>9410242</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>8730701</v>
+        <v>9755531</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>9410242</v>
+        <v>9761585</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>9755531</v>
+        <v>9646446</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>9761585</v>
+        <v>9571495</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>9646446</v>
+        <v>9782053</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>9571495</v>
+        <v>9609767</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>9782053</v>
+        <v>9772667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>9609767</v>
+        <v>10185841</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>9772667</v>
+        <v>10165675</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>10185841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>10165675</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1289,802 +1289,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>5254254</v>
+        <v>6499399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>5680358</v>
+        <v>6638999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>6499399</v>
+        <v>6694510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>6638999</v>
+        <v>6717569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>6694510</v>
+        <v>6945566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>6717569</v>
+        <v>6731342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>6945566</v>
+        <v>6709585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>6731342</v>
+        <v>7068758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>6709585</v>
+        <v>6969177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>7068758</v>
+        <v>6850928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>6969177</v>
+        <v>6790120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>6850928</v>
+        <v>7073884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>6790120</v>
+        <v>7194955</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>7073884</v>
+        <v>7983007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>7194955</v>
+        <v>8039018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>7983007</v>
+        <v>8450693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>8039018</v>
+        <v>8407182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>8450693</v>
+        <v>8502000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>8407182</v>
+        <v>8198723</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>8502000</v>
+        <v>8009676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>8198723</v>
+        <v>7981538</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>8009676</v>
+        <v>7721205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>7981538</v>
+        <v>7773677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>7721205</v>
+        <v>7825423</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>7773677</v>
+        <v>7416536</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>7825423</v>
+        <v>7780446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>7416536</v>
+        <v>7641792</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>7780446</v>
+        <v>7605664</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>7641792</v>
+        <v>7598277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>7605664</v>
+        <v>7879047</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>7598277</v>
+        <v>7379435</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>7879047</v>
+        <v>7531467</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>7379435</v>
+        <v>7675867</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>7531467</v>
+        <v>7577765</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>7675867</v>
+        <v>7434346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>7577765</v>
+        <v>7529653</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>7434346</v>
+        <v>7466972</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>7529653</v>
+        <v>7730175</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>7466972</v>
+        <v>7457873</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>7730175</v>
+        <v>7417543</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>7457873</v>
+        <v>7700425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>7417543</v>
+        <v>7310074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>7700425</v>
+        <v>7418392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>7310074</v>
+        <v>7458669</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>7418392</v>
+        <v>7294382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>7458669</v>
+        <v>7440958</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>7294382</v>
+        <v>7280922</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>7440958</v>
+        <v>7673739</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>7280922</v>
+        <v>7831888</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>7673739</v>
+        <v>8076089</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>7831888</v>
+        <v>8005124</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>8076089</v>
+        <v>7760772</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>8005124</v>
+        <v>7612800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>7760772</v>
+        <v>6910751</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>7612800</v>
+        <v>6775168</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>6910751</v>
+        <v>6823239</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>6775168</v>
+        <v>6999837</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>6823239</v>
+        <v>6655878</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>6999837</v>
+        <v>6588548</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>6655878</v>
+        <v>6330312</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>6588548</v>
+        <v>6347447</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>6330312</v>
+        <v>6833287</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>6347447</v>
+        <v>6720905</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>6833287</v>
+        <v>6700328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>6720905</v>
+        <v>6849664</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>6700328</v>
+        <v>7172574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>6849664</v>
+        <v>7248919</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>7172574</v>
+        <v>7583203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>7248919</v>
+        <v>8097657</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>7583203</v>
+        <v>7957074</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>8097657</v>
+        <v>8588267</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>7957074</v>
+        <v>8608122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>8588267</v>
+        <v>9040653</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>8608122</v>
+        <v>8635097</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>9040653</v>
+        <v>9316144</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>8635097</v>
+        <v>9361356</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>9316144</v>
+        <v>8988279</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>9361356</v>
+        <v>9278819</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>8988279</v>
+        <v>9291909</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>9278819</v>
+        <v>9385864</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>9291909</v>
+        <v>8655472</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>9385864</v>
+        <v>8569503</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>8655472</v>
+        <v>8704394</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>8569503</v>
+        <v>9077506</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>8704394</v>
+        <v>9726976</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>9077506</v>
+        <v>10450864</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>9726976</v>
+        <v>10159544</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>10450864</v>
+        <v>10035062</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>10159544</v>
+        <v>10406227</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>10035062</v>
+        <v>11137228</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>10406227</v>
+        <v>11362419</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>11137228</v>
+        <v>11831576</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>11362419</v>
+        <v>11609650</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>11831576</v>
+        <v>11732617</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>11609650</v>
+        <v>11670758</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>11732617</v>
+        <v>12375462</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>11670758</v>
+        <v>12993585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>12375462</v>
+        <v>12567105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>12993585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>12567105</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2120,802 +2120,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>2499949</v>
+        <v>2484573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>2472324</v>
+        <v>2475170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>2484573</v>
+        <v>2448019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>2475170</v>
+        <v>2474950</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>2448019</v>
+        <v>2493239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>2474950</v>
+        <v>2580332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>2493239</v>
+        <v>2486855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>2580332</v>
+        <v>2433430</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>2486855</v>
+        <v>2441420</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>2433430</v>
+        <v>2400396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>2441420</v>
+        <v>2592690</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>2400396</v>
+        <v>2625948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>2592690</v>
+        <v>2525489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>2625948</v>
+        <v>2537899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>2525489</v>
+        <v>2510716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>2537899</v>
+        <v>2523909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>2510716</v>
+        <v>2434139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>2523909</v>
+        <v>2479017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>2434139</v>
+        <v>2502353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>2479017</v>
+        <v>2534132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>2502353</v>
+        <v>2634969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>2534132</v>
+        <v>2477162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>2634969</v>
+        <v>2481544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>2477162</v>
+        <v>2419079</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>2481544</v>
+        <v>2411937</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>2419079</v>
+        <v>2558771</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>2411937</v>
+        <v>2563070</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>2558771</v>
+        <v>2460024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>2563070</v>
+        <v>2406869</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>2460024</v>
+        <v>2363615</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>2406869</v>
+        <v>2475248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>2363615</v>
+        <v>2505124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>2475248</v>
+        <v>2525541</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>2505124</v>
+        <v>2507353</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>2525541</v>
+        <v>2518234</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>2507353</v>
+        <v>2773654</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>2518234</v>
+        <v>2849295</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>2773654</v>
+        <v>3105979</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>2849295</v>
+        <v>3197005</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>3105979</v>
+        <v>3230219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>3197005</v>
+        <v>3145353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>3230219</v>
+        <v>3033948</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>3145353</v>
+        <v>2995520</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>3033948</v>
+        <v>3001514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>2995520</v>
+        <v>3076364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>3001514</v>
+        <v>2953928</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>3076364</v>
+        <v>2910198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>2953928</v>
+        <v>2955684</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>2910198</v>
+        <v>2983960</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>2955684</v>
+        <v>2993630</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>2983960</v>
+        <v>2931892</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>2993630</v>
+        <v>2852323</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>2931892</v>
+        <v>2861282</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>2852323</v>
+        <v>2702020</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>2861282</v>
+        <v>2654219</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>2702020</v>
+        <v>2659241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>2654219</v>
+        <v>2738320</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>2659241</v>
+        <v>2739685</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>2738320</v>
+        <v>2667481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>2739685</v>
+        <v>2598460</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>2667481</v>
+        <v>2508635</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>2598460</v>
+        <v>2501190</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>2508635</v>
+        <v>2505798</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>2501190</v>
+        <v>2433634</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>2505798</v>
+        <v>2507500</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>2433634</v>
+        <v>2634058</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>2507500</v>
+        <v>2632179</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>2634058</v>
+        <v>2632962</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>2632179</v>
+        <v>2575699</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>2632962</v>
+        <v>2644974</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>2575699</v>
+        <v>2678315</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>2644974</v>
+        <v>2653385</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>2678315</v>
+        <v>2490108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>2653385</v>
+        <v>2548064</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>2490108</v>
+        <v>2611474</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>2548064</v>
+        <v>2522466</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>2611474</v>
+        <v>2531887</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>2522466</v>
+        <v>2588346</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>2531887</v>
+        <v>2475626</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>2588346</v>
+        <v>2566748</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>2475626</v>
+        <v>2416573</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>2566748</v>
+        <v>2453566</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>2416573</v>
+        <v>2424497</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>2453566</v>
+        <v>2441255</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>2424497</v>
+        <v>2796142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>2441255</v>
+        <v>2578242</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>2796142</v>
+        <v>2633657</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>2578242</v>
+        <v>2909117</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>2633657</v>
+        <v>2889732</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>2909117</v>
+        <v>3046383</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>2889732</v>
+        <v>3204219</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>3046383</v>
+        <v>3277280</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>3204219</v>
+        <v>3281218</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>3277280</v>
+        <v>3380694</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>3281218</v>
+        <v>3270764</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>3380694</v>
+        <v>3565533</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>3270764</v>
+        <v>3627516</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>3565533</v>
+        <v>3870534</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>3627516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>3870534</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2951,802 +2951,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>421699</v>
+        <v>449203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>414586</v>
+        <v>438687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>449203</v>
+        <v>433089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>438687</v>
+        <v>443492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>433089</v>
+        <v>462361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>443492</v>
+        <v>487973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>462361</v>
+        <v>491027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>487973</v>
+        <v>485600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>491027</v>
+        <v>493455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>485600</v>
+        <v>492316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>493455</v>
+        <v>510188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>492316</v>
+        <v>522063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>510188</v>
+        <v>509173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>522063</v>
+        <v>517249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>509173</v>
+        <v>528847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>517249</v>
+        <v>547696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>528847</v>
+        <v>531438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>547696</v>
+        <v>542629</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>531438</v>
+        <v>584057</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>542629</v>
+        <v>603218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>584057</v>
+        <v>670786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>603218</v>
+        <v>682646</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>670786</v>
+        <v>659106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>682646</v>
+        <v>663929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>659106</v>
+        <v>674977</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>663929</v>
+        <v>714113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>674977</v>
+        <v>697903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>714113</v>
+        <v>700988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>697903</v>
+        <v>701720</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>700988</v>
+        <v>667173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>701720</v>
+        <v>629042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>667173</v>
+        <v>634909</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>629042</v>
+        <v>668608</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>634909</v>
+        <v>683613</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>668608</v>
+        <v>669027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>683613</v>
+        <v>734498</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>669027</v>
+        <v>740899</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>734498</v>
+        <v>755986</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>740899</v>
+        <v>746569</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>755986</v>
+        <v>744827</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>746569</v>
+        <v>730460</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>744827</v>
+        <v>699735</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>730460</v>
+        <v>704539</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>699735</v>
+        <v>724832</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>704539</v>
+        <v>734938</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>724832</v>
+        <v>717314</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>734938</v>
+        <v>676573</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>717314</v>
+        <v>678851</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>676573</v>
+        <v>670714</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>678851</v>
+        <v>686394</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>670714</v>
+        <v>691188</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>686394</v>
+        <v>673714</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>691188</v>
+        <v>683136</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>673714</v>
+        <v>682801</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>683136</v>
+        <v>703015</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>682801</v>
+        <v>690620</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>703015</v>
+        <v>709135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>690620</v>
+        <v>698931</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>709135</v>
+        <v>697729</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>698931</v>
+        <v>686280</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>697729</v>
+        <v>678650</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>686280</v>
+        <v>661871</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>678650</v>
+        <v>653139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>661871</v>
+        <v>656004</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>653139</v>
+        <v>679138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>656004</v>
+        <v>679932</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>679138</v>
+        <v>682167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>679932</v>
+        <v>725278</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>682167</v>
+        <v>705742</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>725278</v>
+        <v>720401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>705742</v>
+        <v>716642</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>720401</v>
+        <v>695987</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>716642</v>
+        <v>701690</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>695987</v>
+        <v>709850</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>701690</v>
+        <v>734628</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>709850</v>
+        <v>724160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>734628</v>
+        <v>744277</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>724160</v>
+        <v>728252</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>744277</v>
+        <v>694794</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>728252</v>
+        <v>717776</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>694794</v>
+        <v>694125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>717776</v>
+        <v>712123</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>694125</v>
+        <v>720262</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>712123</v>
+        <v>733985</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>720262</v>
+        <v>731890</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>733985</v>
+        <v>731404</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>731890</v>
+        <v>716330</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>731404</v>
+        <v>740994</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>716330</v>
+        <v>731667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>740994</v>
+        <v>803574</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>731667</v>
+        <v>874296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>803574</v>
+        <v>887459</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>874296</v>
+        <v>892870</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>887459</v>
+        <v>1011867</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>892870</v>
+        <v>1015239</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1011867</v>
+        <v>1037071</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1015239</v>
+        <v>1054290</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1037071</v>
+        <v>1060902</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1054290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1060902</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3782,802 +3782,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>1123241</v>
+        <v>1139372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>1118736</v>
+        <v>1215457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>1139372</v>
+        <v>1177579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>1215457</v>
+        <v>1176790</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>1177579</v>
+        <v>1213084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>1176790</v>
+        <v>1265634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>1213084</v>
+        <v>1192912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>1265634</v>
+        <v>1166188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>1192912</v>
+        <v>1161938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>1166188</v>
+        <v>1188619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>1161938</v>
+        <v>1168832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>1188619</v>
+        <v>1313200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>1168832</v>
+        <v>1268960</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>1313200</v>
+        <v>1346385</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1268960</v>
+        <v>1345213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1346385</v>
+        <v>1328368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1345213</v>
+        <v>1259999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1328368</v>
+        <v>1271054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1259999</v>
+        <v>1310084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1271054</v>
+        <v>1326572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1310084</v>
+        <v>1367724</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1326572</v>
+        <v>1330511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1367724</v>
+        <v>1272511</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1330511</v>
+        <v>1286172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1272511</v>
+        <v>1268620</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1286172</v>
+        <v>1274373</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1268620</v>
+        <v>1345389</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1274373</v>
+        <v>1361076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1345389</v>
+        <v>1317617</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1361076</v>
+        <v>1275027</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1317617</v>
+        <v>1265601</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1275027</v>
+        <v>1343812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1265601</v>
+        <v>1321772</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1343812</v>
+        <v>1264447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1321772</v>
+        <v>1260189</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1264447</v>
+        <v>1301329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1260189</v>
+        <v>1358500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1301329</v>
+        <v>1374367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1358500</v>
+        <v>1309313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1374367</v>
+        <v>1334884</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1309313</v>
+        <v>1315156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1334884</v>
+        <v>1250275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1315156</v>
+        <v>1243584</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1250275</v>
+        <v>1439035</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1243584</v>
+        <v>1485673</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1439035</v>
+        <v>1549930</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1485673</v>
+        <v>1471003</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>1549930</v>
+        <v>1586737</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1471003</v>
+        <v>1613334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1586737</v>
+        <v>1620539</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1613334</v>
+        <v>1677208</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1620539</v>
+        <v>1597505</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1677208</v>
+        <v>1615641</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1597505</v>
+        <v>1569315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1615641</v>
+        <v>1511367</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1569315</v>
+        <v>1472214</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1511367</v>
+        <v>1516417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1472214</v>
+        <v>1514767</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1516417</v>
+        <v>1483412</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1514767</v>
+        <v>1443929</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1483412</v>
+        <v>1404387</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1443929</v>
+        <v>1389899</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1404387</v>
+        <v>1372580</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1389899</v>
+        <v>1322886</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1372580</v>
+        <v>1374703</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1322886</v>
+        <v>1366443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1374703</v>
+        <v>1365823</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1366443</v>
+        <v>1363148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1365823</v>
+        <v>1355364</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1363148</v>
+        <v>1421859</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1355364</v>
+        <v>1458360</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1421859</v>
+        <v>1454346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1458360</v>
+        <v>1463432</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1454346</v>
+        <v>1446110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1463432</v>
+        <v>1436175</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1446110</v>
+        <v>1373790</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1436175</v>
+        <v>1366708</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1373790</v>
+        <v>1354237</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1366708</v>
+        <v>1308671</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1354237</v>
+        <v>1379672</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1308671</v>
+        <v>1288332</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1379672</v>
+        <v>1292391</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1288332</v>
+        <v>1271262</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1292391</v>
+        <v>1279029</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1271262</v>
+        <v>1319814</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1279029</v>
+        <v>1288831</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1319814</v>
+        <v>1353399</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1288831</v>
+        <v>1424966</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1353399</v>
+        <v>1452671</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1424966</v>
+        <v>1660176</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1452671</v>
+        <v>1802562</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1660176</v>
+        <v>1877435</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1802562</v>
+        <v>1845557</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1877435</v>
+        <v>1829693</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1845557</v>
+        <v>1779468</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1829693</v>
+        <v>1944505</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1779468</v>
+        <v>1929183</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1944505</v>
+        <v>1921995</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1929183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1921995</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4613,802 +4613,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>820725</v>
+        <v>813980</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>782744</v>
+        <v>837193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>813980</v>
+        <v>812369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>837193</v>
+        <v>812911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>812369</v>
+        <v>811218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>812911</v>
+        <v>840982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>811218</v>
+        <v>787143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>840982</v>
+        <v>753360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>787143</v>
+        <v>746484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>753360</v>
+        <v>747952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>746484</v>
+        <v>743854</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>747952</v>
+        <v>799533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>743854</v>
+        <v>767515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>799533</v>
+        <v>878117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>767515</v>
+        <v>862137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>878117</v>
+        <v>846432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>862137</v>
+        <v>815778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>846432</v>
+        <v>816886</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>815778</v>
+        <v>823663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>816886</v>
+        <v>830285</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>823663</v>
+        <v>880680</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>830285</v>
+        <v>860524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>880680</v>
+        <v>854043</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>860524</v>
+        <v>844893</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>854043</v>
+        <v>843924</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>844893</v>
+        <v>859633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>843924</v>
+        <v>892254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>859633</v>
+        <v>895711</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>892254</v>
+        <v>885394</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>895711</v>
+        <v>868155</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>885394</v>
+        <v>883217</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>868155</v>
+        <v>912492</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>883217</v>
+        <v>940958</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>912492</v>
+        <v>931382</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>940958</v>
+        <v>923832</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>931382</v>
+        <v>943823</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>923832</v>
+        <v>989317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>943823</v>
+        <v>1028700</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>989317</v>
+        <v>974750</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1028700</v>
+        <v>993250</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>974750</v>
+        <v>956110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>993250</v>
+        <v>927686</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>956110</v>
+        <v>933518</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>927686</v>
+        <v>1011635</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>933518</v>
+        <v>1018637</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1011635</v>
+        <v>997966</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1018637</v>
+        <v>1024671</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>997966</v>
+        <v>1074111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1024671</v>
+        <v>1123696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1074111</v>
+        <v>1129912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1123696</v>
+        <v>1168733</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1129912</v>
+        <v>1113584</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1168733</v>
+        <v>1128605</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1113584</v>
+        <v>1101353</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1128605</v>
+        <v>1084655</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1101353</v>
+        <v>1071712</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1084655</v>
+        <v>1100428</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1071712</v>
+        <v>1112118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1100428</v>
+        <v>1097529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1112118</v>
+        <v>1070005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1097529</v>
+        <v>1031139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1070005</v>
+        <v>1015224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1031139</v>
+        <v>1026641</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1015224</v>
+        <v>1015791</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1026641</v>
+        <v>1026092</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1015791</v>
+        <v>1026521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1026092</v>
+        <v>1028254</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1026521</v>
+        <v>1026538</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1028254</v>
+        <v>1041737</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1026538</v>
+        <v>1039627</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1041737</v>
+        <v>1055843</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1039627</v>
+        <v>1043547</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1055843</v>
+        <v>1051997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1043547</v>
+        <v>1047572</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1051997</v>
+        <v>1074159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1047572</v>
+        <v>1045215</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1074159</v>
+        <v>1041786</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1045215</v>
+        <v>1043925</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1041786</v>
+        <v>1015017</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1043925</v>
+        <v>1048260</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1015017</v>
+        <v>991691</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1048260</v>
+        <v>999096</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>991691</v>
+        <v>956490</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>999096</v>
+        <v>956396</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>956490</v>
+        <v>951780</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>956396</v>
+        <v>933907</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>951780</v>
+        <v>974472</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>933907</v>
+        <v>1006715</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>974472</v>
+        <v>1059727</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1006715</v>
+        <v>1181852</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1059727</v>
+        <v>1496487</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1181852</v>
+        <v>1606913</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1496487</v>
+        <v>1560984</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1606913</v>
+        <v>1770645</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1560984</v>
+        <v>1663954</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1770645</v>
+        <v>1818545</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1663954</v>
+        <v>1965409</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1818545</v>
+        <v>2080868</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1965409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>2080868</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5444,802 +5444,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>260553</v>
+        <v>261353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>259159</v>
+        <v>264855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>261353</v>
+        <v>274489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>264855</v>
+        <v>275111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>274489</v>
+        <v>283517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>275111</v>
+        <v>307485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>283517</v>
+        <v>307481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>307485</v>
+        <v>308096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>307481</v>
+        <v>310385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>308096</v>
+        <v>316007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>310385</v>
+        <v>315873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>316007</v>
+        <v>320858</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>315873</v>
+        <v>333650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>320858</v>
+        <v>349213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>333650</v>
+        <v>347802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>349213</v>
+        <v>333447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>347802</v>
+        <v>333372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>333447</v>
+        <v>330555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>333372</v>
+        <v>334575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>330555</v>
+        <v>350263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>334575</v>
+        <v>354976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>350263</v>
+        <v>362010</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>354976</v>
+        <v>350954</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>362010</v>
+        <v>352720</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>350954</v>
+        <v>353625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>352720</v>
+        <v>365693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>353625</v>
+        <v>365834</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>365693</v>
+        <v>371069</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>365834</v>
+        <v>374143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>371069</v>
+        <v>366374</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>374143</v>
+        <v>416663</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>366374</v>
+        <v>415778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>416663</v>
+        <v>416670</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>415778</v>
+        <v>421837</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>416670</v>
+        <v>417769</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>421837</v>
+        <v>409718</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>417769</v>
+        <v>394981</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>409718</v>
+        <v>399562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>394981</v>
+        <v>404135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>399562</v>
+        <v>404899</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>404135</v>
+        <v>379333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>404899</v>
+        <v>367571</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>379333</v>
+        <v>368153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>367571</v>
+        <v>364309</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>368153</v>
+        <v>360753</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>364309</v>
+        <v>364961</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>360753</v>
+        <v>330663</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>364961</v>
+        <v>329781</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>330663</v>
+        <v>318650</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>329781</v>
+        <v>329407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>318650</v>
+        <v>325619</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>329407</v>
+        <v>324568</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>325619</v>
+        <v>337303</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>324568</v>
+        <v>317484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>337303</v>
+        <v>314478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>317484</v>
+        <v>311579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>314478</v>
+        <v>314643</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>311579</v>
+        <v>312434</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>314643</v>
+        <v>311750</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>312434</v>
+        <v>311669</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>311750</v>
+        <v>305496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>311669</v>
+        <v>299371</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>305496</v>
+        <v>303824</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>299371</v>
+        <v>310355</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>303824</v>
+        <v>308895</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>310355</v>
+        <v>308074</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>308895</v>
+        <v>299485</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>308074</v>
+        <v>296121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>299485</v>
+        <v>300171</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>296121</v>
+        <v>308412</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>300171</v>
+        <v>316467</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>308412</v>
+        <v>316503</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>316467</v>
+        <v>312140</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>316503</v>
+        <v>307989</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>312140</v>
+        <v>323824</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>307989</v>
+        <v>310920</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>323824</v>
+        <v>287313</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>310920</v>
+        <v>294095</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>287313</v>
+        <v>281978</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>294095</v>
+        <v>285341</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>281978</v>
+        <v>255428</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>285341</v>
+        <v>256996</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>255428</v>
+        <v>258991</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>256996</v>
+        <v>272819</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>258991</v>
+        <v>282533</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>272819</v>
+        <v>292902</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>282533</v>
+        <v>298810</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>292902</v>
+        <v>305309</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>298810</v>
+        <v>312346</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>305309</v>
+        <v>314579</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>312346</v>
+        <v>306331</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>314579</v>
+        <v>327041</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>306331</v>
+        <v>316206</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>327041</v>
+        <v>306871</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>316206</v>
+        <v>311298</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>306871</v>
+        <v>300610</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>311298</v>
+        <v>303252</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>300610</v>
+        <v>303403</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>303252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>303403</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6275,802 +6275,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>170359</v>
+        <v>165345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>164269</v>
+        <v>171504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>165345</v>
+        <v>175997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>171504</v>
+        <v>176554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>175997</v>
+        <v>179696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>176554</v>
+        <v>182103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>179696</v>
+        <v>178286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>182103</v>
+        <v>177499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>178286</v>
+        <v>180887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>177499</v>
+        <v>188162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>180887</v>
+        <v>191093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>188162</v>
+        <v>192055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>191093</v>
+        <v>189178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>192055</v>
+        <v>198225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>189178</v>
+        <v>196911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>198225</v>
+        <v>194726</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>196911</v>
+        <v>191168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>194726</v>
+        <v>187527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>191168</v>
+        <v>184868</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>187527</v>
+        <v>185220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>184868</v>
+        <v>193736</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>185220</v>
+        <v>195174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>193736</v>
+        <v>194078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>195174</v>
+        <v>189869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>194078</v>
+        <v>191515</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>189869</v>
+        <v>195605</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>191515</v>
+        <v>192937</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>195605</v>
+        <v>190909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>192937</v>
+        <v>191732</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>190909</v>
+        <v>191540</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>191732</v>
+        <v>195408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>191540</v>
+        <v>195266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>195408</v>
+        <v>195769</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>195266</v>
+        <v>196612</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>195769</v>
+        <v>187589</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>196612</v>
+        <v>186493</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>187589</v>
+        <v>207531</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>186493</v>
+        <v>222077</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>207531</v>
+        <v>217414</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>222077</v>
+        <v>220486</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>217414</v>
+        <v>227609</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>220486</v>
+        <v>222291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>227609</v>
+        <v>216190</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>222291</v>
+        <v>219266</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>216190</v>
+        <v>222878</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>219266</v>
+        <v>216620</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>222878</v>
+        <v>216412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>216620</v>
+        <v>218678</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>216412</v>
+        <v>214491</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>218678</v>
+        <v>260094</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>214491</v>
+        <v>243617</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>260094</v>
+        <v>243626</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>243617</v>
+        <v>238119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>243626</v>
+        <v>221034</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>238119</v>
+        <v>221771</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>221034</v>
+        <v>223615</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>221771</v>
+        <v>233718</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>223615</v>
+        <v>239025</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>233718</v>
+        <v>240055</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>239025</v>
+        <v>242702</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>240055</v>
+        <v>243416</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>242702</v>
+        <v>234153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>243416</v>
+        <v>239220</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>234153</v>
+        <v>246277</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>239220</v>
+        <v>244585</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>246277</v>
+        <v>243303</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>244585</v>
+        <v>242903</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>243303</v>
+        <v>247064</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>242903</v>
+        <v>249608</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>247064</v>
+        <v>265429</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>249608</v>
+        <v>285501</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>265429</v>
+        <v>291627</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>285501</v>
+        <v>325727</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>291627</v>
+        <v>314873</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>325727</v>
+        <v>317630</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>314873</v>
+        <v>261113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>317630</v>
+        <v>271599</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>261113</v>
+        <v>265457</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>271599</v>
+        <v>272013</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>265457</v>
+        <v>283578</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>272013</v>
+        <v>260885</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>283578</v>
+        <v>271495</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>260885</v>
+        <v>261822</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>271495</v>
+        <v>263218</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>261822</v>
+        <v>318320</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>263218</v>
+        <v>343775</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>318320</v>
+        <v>313517</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>343775</v>
+        <v>291955</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>313517</v>
+        <v>312626</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>291955</v>
+        <v>316067</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>312626</v>
+        <v>315252</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>316067</v>
+        <v>300610</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>315252</v>
+        <v>294460</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>300610</v>
+        <v>284823</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>294460</v>
+        <v>284945</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>284823</v>
+        <v>286421</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>284945</v>
+        <v>319265</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>286421</v>
+        <v>318481</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>319265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>318481</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_1_r.xlsx
+++ b/list_1_r.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,7 +1245,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>10319015</v>
       </c>
     </row>
     <row r="101">
@@ -1253,6 +1253,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>10671656</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,7 +2084,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>13415088</v>
       </c>
     </row>
     <row r="101">
@@ -2084,6 +2092,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>13473681</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2907,7 +2923,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>3808734</v>
       </c>
     </row>
     <row r="101">
@@ -2915,6 +2931,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>3596902</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2929,7 +2953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,7 +3762,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1070636</v>
       </c>
     </row>
     <row r="101">
@@ -3746,6 +3770,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1030573</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4569,7 +4601,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1901071</v>
       </c>
     </row>
     <row r="101">
@@ -4577,6 +4609,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1819220</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4591,7 +4631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,7 +5440,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1980666</v>
       </c>
     </row>
     <row r="101">
@@ -5408,6 +5448,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1935706</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5422,7 +5470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6231,7 +6279,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>300917</v>
       </c>
     </row>
     <row r="101">
@@ -6239,6 +6287,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>303355</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6253,7 +6309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7062,7 +7118,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>322170</v>
       </c>
     </row>
     <row r="101">
@@ -7070,6 +7126,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>332237</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_1_r.xlsx
+++ b/list_1_r.xlsx
@@ -1261,7 +1261,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>11110274</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2100,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>13207681</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2939,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3507007</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3778,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1015895</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4617,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1747694</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5456,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1841830</v>
       </c>
     </row>
   </sheetData>
@@ -6295,7 +6295,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>295495</v>
       </c>
     </row>
   </sheetData>
@@ -7134,7 +7134,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>350033</v>
       </c>
     </row>
   </sheetData>
